--- a/设计文档/发行站管理子系统接口说明.xlsx
+++ b/设计文档/发行站管理子系统接口说明.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="252">
   <si>
     <t>接口名称：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,74 +225,683 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://127.0.0.1:8080/POMSProject/publish/query/customerList</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"customerID":1,"customerName":"test","customerPhone":"11111111","customerType":2,"stationID":1}]}</t>
+  </si>
+  <si>
+    <t>data                   数组                        客户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/publish/query/paymentList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                   数组                     订单付款情况列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                   数组                        订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/publish/query/promptList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                   数组                      欠款订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"orderID":3,"customerName":"test","customerPhone":"11111111","paymentState":1}]}</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/publish/supervisionManage/complaintList</t>
+  </si>
+  <si>
+    <t>data                   数组                        投诉列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"recordID":1,"customerID":1,"commentType":1,"stationID":1,"content":"1","receipt":null}]}</t>
+  </si>
+  <si>
+    <t>customerID              int                          客户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                       添加回执结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/publish/supervisionManage/insertReceipt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordID              int                         意见表记录ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receipt              String                          回执信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/publish/supervisionManage/praiseList</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                   数组                        表扬列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"recordID":2,"customerID":1,"commentType":2,"stationID":1,"content":"1","receipt":null}]}</t>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"recordID":3,"customerID":1,"commentType":3,"stationID":1,"content":"1","receipt":null}]}</t>
+  </si>
+  <si>
+    <t>data                   数组                        建议列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/publish/supervisionManage/suggestionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品订购模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/assist/unreadedAdviceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过get方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称              参数类型                       参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无                    无                             无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称              字段类型                        说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size                  String                          返回数据大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                  String[]                        返回数据内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adviceID              int                             通知ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendStationID         int                             发送站ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendDeptID            int                             发送部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveStationID      int                             接受站ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveDeptID         int                             接受部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isReaded              int                             是否被阅读:0表示未读，1表示已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content               String                          通知内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendDate              String                          发送日期:yyyy-MM-dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"adviceID":1,"sendStationID":1,"sendDeptID":1,"receiveStationID":1,"receiveDeptID":1,"isReaded":0,"content":"text","sendDate":"2017-08-10"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/assist/sendAdvice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过post方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称              参数类型                      参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content               String                          通知内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                            状态 正常;1  错误:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"result":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/assist/readedAdviceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无                    无                            无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendStationID         int                             发送站ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendDeptID            int                             发送部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/assist/changePassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称            参数类型                       参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称            参数类型                       参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newPassword         String                         新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称            字段类型                        说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">result              int                             状态 1:正常 0:错误          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/customer/customerRegister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称             参数类型                       参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerName         String                         客户姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerPhone        String                         客户联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerType         int                            客户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称              字段类型                      说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">result                int                           状态 1:正常 0:错误          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/customer/customerList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过get方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无                  无                             无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size                 int                            返回数据大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size                 int                            返回数据大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                 String                         返回数据内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerID           int                            客户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"customerID":1,"customerName":"name","customerPhone":"123456789","customerType":1}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/deliverManage/getDeliverArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderID              int                            订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">size                 int                           返回数据大小          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                 String                        返回数据内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAreaID        id                            投递段ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAreaValue     String                        投递段地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stationID            int                           所属分站ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPointID       int                           送报点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{deliverAreaID":1,"deliverAreaValue":"address","stationID":1,"deliverPointID":1}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/deliverManage/getOrderByID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderID             int                            订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderID              int                           订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newspaperID          int                           报刊ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerID           int                           客户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stationID            int                           分站ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">orderType            int                           订单类型 通常:0 跨站订阅:1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderAddress         String                        订单地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderNum             int                           订单数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salerID              int                           征订员ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderDate            Date                          订单日期 yyyy-MM-dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderKeepTime        int                           订单持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiptType          int                           收款类型 通常:0 先订报后收费:1 电话订报上门收费:2 异地收费:3 集体收费:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"orderID":1,"newspaperID":1,"customerID":1,"stationID":1,"orderType":1,"orderAddress":"address","orderNum":1,"salerID":1,"orderDate":"2017-08-14","orderKeepTime":20,"receiptType":1}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/deliverManage/getOrderCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date                 Date                          日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">result                 int                          该分站该天接受到报刊的数量          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"result":100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/deliverManage/finishDeliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">result                int                           状态 1:正常 0:错误 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/deliverManage/correctAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correctAddress       String                         新地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">result                int                           状态 1:正常 0:错误           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/newEmployee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称             参数类型                       参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employeeName         String                         员工姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex                  int                            性别 男:0 女:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age                  int                            年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age                  int                            年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentID         int                            部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dutyID               int                            职务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone                String                         联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">result                 int                           状态 1:正常 0:错误          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"result":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/deleteEmployee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employeeID          int                            员工ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称            字段类型                        说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/updateEmployee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employeeID           int                            员工ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employeeName         String                         员工姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/employeeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stationID            int                            分站ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentID         int                            部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dutyID               int                            职务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"employeeID":1,"employeeName":"name","sex":1,"age":16,"stationID":1,"departmentID":1,"dutyID":1,"phone":"123456789"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/setEmployeeDuty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dutyType             int                            职务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/setOperatorLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level               int                            操作员权限级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/salerPerformanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无                  无                             无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance          int                            业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"employeeID":1,"employeeName":"name","performance":100}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/deliverPerformanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                 String                         返回数据内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/invoice/invoiceManage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceID           int                            发票ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state               int                            发票状态 未使用:0 正常(已使用):1 丢失:2 发票作废:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">result              int                             状态 1:正常 0:错误  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">result              int                             状态 1:正常 0:错误  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/orderChange/cancelDeleteOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/orderChange/cancelChangeAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8080/POMSProject/publish/orderChange/cancelPostpone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助业务模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递管理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事管理功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票管理功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订购变更功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>查询分站客户ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://127.0.0.1:8080/POMSProject/publish/query/customerList</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"size":1,"data":[{"customerID":1,"customerName":"test","customerPhone":"11111111","customerType":2,"stationID":1}]}</t>
-  </si>
-  <si>
     <t>查询付款情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data                   数组                        客户列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8080/POMSProject/publish/query/paymentList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data                   数组                     订单付款情况列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data                   数组                        订单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://127.0.0.1:8080/POMSProject/publish/query/promptList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data                   数组                      欠款订单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>欠款订单列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"size":1,"data":[{"orderID":3,"customerName":"test","customerPhone":"11111111","paymentState":1}]}</t>
-  </si>
-  <si>
     <t>客户投诉列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://127.0.0.1:8080/POMSProject/publish/supervisionManage/complaintList</t>
-  </si>
-  <si>
-    <t>data                   数组                        投诉列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"size":1,"data":[{"recordID":1,"customerID":1,"commentType":1,"stationID":1,"content":"1","receipt":null}]}</t>
-  </si>
-  <si>
-    <t>customerID              int                          客户ID</t>
+    <t>http://127.0.0.1:8080/POMSProject/publish/supervisionManage/complaintByCustomerID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -300,76 +909,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://127.0.0.1:8080/POMSProject/publish/supervisionManage/complaintByCustomerID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result                int                       添加回执结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加回执</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://127.0.0.1:8080/POMSProject/publish/supervisionManage/insertReceipt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordID              int                         意见表记录ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receipt              String                          回执信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询表扬列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://127.0.0.1:8080/POMSProject/publish/supervisionManage/praiseList</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data                   数组                        表扬列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"size":1,"data":[{"recordID":2,"customerID":1,"commentType":2,"stationID":1,"content":"1","receipt":null}]}</t>
-  </si>
-  <si>
-    <t>{"size":1,"data":[{"recordID":3,"customerID":1,"commentType":3,"stationID":1,"content":"1","receipt":null}]}</t>
-  </si>
-  <si>
-    <t>data                   数组                        建议列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8080/POMSProject/publish/supervisionManage/suggestionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品订购模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监督功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名称：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名称：</t>
+    <t>查询建议列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,635 +925,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口地址：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1:8080/POMSProject/publish/assist/unreadedAdviceList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过get方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数名称              参数类型                       参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无                    无                             无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名称              字段类型                        说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size                  String                          返回数据大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data                  String[]                        返回数据内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adviceID              int                             通知ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendStationID         int                             发送站ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendDeptID            int                             发送部门ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveStationID      int                             接受站ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveDeptID         int                             接受部门ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isReaded              int                             是否被阅读:0表示未读，1表示已读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content               String                          通知内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendDate              String                          发送日期:yyyy-MM-dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"size":1,"data":[{"adviceID":1,"sendStationID":1,"sendDeptID":1,"receiveStationID":1,"receiveDeptID":1,"isReaded":0,"content":"text","sendDate":"2017-08-10"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发送通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口地址：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1:8080/POMSProject/publish/assist/sendAdvice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过post方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数名称              参数类型                      参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content               String                          通知内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result                int                            状态 正常;1  错误:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"result":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看对应分站部门已读通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/assist/readedAdviceList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无                    无                            无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendStationID         int                             发送站ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendDeptID            int                             发送部门ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改操作员密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/assist/changePassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数名称            参数类型                       参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数名称            参数类型                       参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newPassword         String                         新密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名称            字段类型                        说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">result              int                             状态 1:正常 0:错误          </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加客户信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/customer/customerRegister</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数名称             参数类型                       参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerName         String                         客户姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerPhone        String                         客户联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerType         int                            客户类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名称              字段类型                      说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">result                int                           状态 1:正常 0:错误          </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询该分站所有客户信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/customer/customerList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过get方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无                  无                             无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size                 int                            返回数据大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size                 int                            返回数据大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data                 String                         返回数据内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerID           int                            客户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"size":1,"data":[{"customerID":1,"customerName":"name","customerPhone":"123456789","customerType":1}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询某订单的投递段信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/deliverManage/getDeliverArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderID              int                            订单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">size                 int                           返回数据大小          </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data                 String                        返回数据内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAreaID        id                            投递段ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAreaValue     String                        投递段地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stationID            int                           所属分站ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPointID       int                           送报点ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"size":1,"data":[{deliverAreaID":1,"deliverAreaValue":"address","stationID":1,"deliverPointID":1}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据ID查询某分站订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/deliverManage/getOrderByID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderID             int                            订单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderID              int                           订单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newspaperID          int                           报刊ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerID           int                           客户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stationID            int                           分站ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">orderType            int                           订单类型 通常:0 跨站订阅:1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderAddress         String                        订单地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderNum             int                           订单数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>salerID              int                           征订员ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderDate            Date                          订单日期 yyyy-MM-dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderKeepTime        int                           订单持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiptType          int                           收款类型 通常:0 先订报后收费:1 电话订报上门收费:2 异地收费:3 集体收费:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"size":1,"data":[{"orderID":1,"newspaperID":1,"customerID":1,"stationID":1,"orderType":1,"orderAddress":"address","orderNum":1,"salerID":1,"orderDate":"2017-08-14","orderKeepTime":20,"receiptType":1}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看到某个日期的本分站接受到报刊的数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/deliverManage/getOrderCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date                 Date                          日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">result                 int                          该分站该天接受到报刊的数量          </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"result":100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>确认该订单投递</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/deliverManage/finishDeliver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">result                int                           状态 1:正常 0:错误 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改订单地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/deliverManage/correctAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>correctAddress       String                         新地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">result                int                           状态 1:正常 0:错误           </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加员工信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/newEmployee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数名称             参数类型                       参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employeeName         String                         员工姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex                  int                            性别 男:0 女:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age                  int                            年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age                  int                            年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>departmentID         int                            部门ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dutyID               int                            职务ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone                String                         联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">result                 int                           状态 1:正常 0:错误          </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"result":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除员工信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/deleteEmployee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employeeID          int                            员工ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名称            字段类型                        说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更新员工信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/updateEmployee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employeeID           int                            员工ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employeeName         String                         员工姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询该分站所有员工信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/employeeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stationID            int                            分站ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>departmentID         int                            部门ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dutyID               int                            职务ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"size":1,"data":[{"employeeID":1,"employeeName":"name","sex":1,"age":16,"stationID":1,"departmentID":1,"dutyID":1,"phone":"123456789"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置员工职务信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/setEmployeeDuty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dutyType             int                            职务ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置操作员操作权限级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/setOperatorLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level               int                            操作员权限级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>统计该分站所有征订员业绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/salerPerformanceList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无                  无                             无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>performance          int                            业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"size":1,"data":[{"employeeID":1,"employeeName":"name","performance":100}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>统计该分站所有投递员业绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/employeeManage/deliverPerformanceList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data                 String                         返回数据内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置发票状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/invoice/invoiceManage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceID           int                            发票ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state               int                            发票状态 未使用:0 正常(已使用):1 丢失:2 发票作废:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">result              int                             状态 1:正常 0:错误  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">result              int                             状态 1:正常 0:错误  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撤销退订</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/orderChange/cancelDeleteOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撤销转址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:8080/POMSProject/publish/orderChange/cancelChangeAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撤销延期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1:8080/POMSProject/publish/orderChange/cancelPostpone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助业务模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户管理模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投递管理模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人事管理功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票管理功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订购变更功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,7 +1017,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,6 +1039,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1053,17 +1065,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1107,7 +1122,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1149,7 +1164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1184,7 +1199,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1395,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="F552" sqref="F552"/>
+    <sheetView tabSelected="1" topLeftCell="B568" workbookViewId="0">
+      <selection activeCell="B574" sqref="B574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1407,7 +1422,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1872,7 +1887,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -2027,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -2035,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
@@ -2056,7 +2071,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
@@ -2082,7 +2097,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2090,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
@@ -2098,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
@@ -2106,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
@@ -2127,7 +2142,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
@@ -2153,7 +2168,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2169,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
@@ -2177,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
@@ -2198,7 +2213,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
@@ -2224,7 +2239,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2240,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
@@ -2248,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="B166" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
@@ -2269,7 +2284,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
@@ -2295,7 +2310,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2303,12 +2318,12 @@
         <v>10</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
@@ -2316,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
@@ -2324,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="B181" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
@@ -2345,7 +2360,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
@@ -2371,7 +2386,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2379,7 +2394,7 @@
         <v>10</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
@@ -2387,15 +2402,15 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>72</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>1</v>
       </c>
-      <c r="B195" t="s">
-        <v>73</v>
+      <c r="B195" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
@@ -2416,7 +2431,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B198" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
@@ -2442,7 +2457,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2450,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
@@ -2458,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
@@ -2466,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="B209" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
@@ -2487,12 +2502,12 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
@@ -2513,7 +2528,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2529,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
@@ -2537,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
@@ -2558,7 +2573,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B226" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
@@ -2584,7 +2599,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B231" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2592,7 +2607,7 @@
         <v>10</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
@@ -2600,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="B236" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
@@ -2608,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="B237" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.15">
@@ -2629,7 +2644,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
@@ -2655,7 +2670,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B245" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2663,36 +2678,36 @@
         <v>10</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B251" t="s">
-        <v>92</v>
+        <v>229</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B252" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B253" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.15">
@@ -2700,12 +2715,12 @@
         <v>4</v>
       </c>
       <c r="B254" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.15">
@@ -2713,97 +2728,97 @@
         <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B257" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B258" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B259" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B261" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B262" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B263" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B264" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B265" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B267" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B268" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B271" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B272" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B273" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.15">
@@ -2811,22 +2826,22 @@
         <v>4</v>
       </c>
       <c r="B274" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B275" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B277" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.15">
@@ -2834,12 +2849,12 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B279" t="s">
         <v>9</v>
@@ -2847,39 +2862,39 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B281" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B284" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B285" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B286" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.15">
@@ -2887,78 +2902,78 @@
         <v>4</v>
       </c>
       <c r="B287" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B288" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B289" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B290" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B291" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B292" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B293" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B295" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B296" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B297" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B298" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B299" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B300" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.15">
@@ -2966,31 +2981,31 @@
         <v>10</v>
       </c>
       <c r="B301" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B304" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B305" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B306" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.15">
@@ -2998,12 +3013,12 @@
         <v>4</v>
       </c>
       <c r="B307" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B308" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.15">
@@ -3011,20 +3026,20 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B311" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B312" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -3032,33 +3047,33 @@
         <v>10</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B317" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B318" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B319" t="s">
         <v>3</v>
@@ -3069,22 +3084,22 @@
         <v>4</v>
       </c>
       <c r="B320" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B322" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.15">
@@ -3092,20 +3107,20 @@
         <v>6</v>
       </c>
       <c r="B324" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B325" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B326" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -3113,31 +3128,31 @@
         <v>10</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B330" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B331" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B332" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.15">
@@ -3145,12 +3160,12 @@
         <v>4</v>
       </c>
       <c r="B333" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B334" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.15">
@@ -3158,45 +3173,45 @@
         <v>6</v>
       </c>
       <c r="B335" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B336" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B337" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B338" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B339" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B341" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B342" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -3204,33 +3219,33 @@
         <v>10</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B347" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B348" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B349" t="s">
         <v>3</v>
@@ -3241,12 +3256,12 @@
         <v>4</v>
       </c>
       <c r="B350" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B351" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.15">
@@ -3254,45 +3269,45 @@
         <v>6</v>
       </c>
       <c r="B352" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B353" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B354" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B356" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B357" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B359" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -3300,44 +3315,44 @@
         <v>10</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B363" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B364" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B365" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B366" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B367" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.15">
@@ -3345,80 +3360,80 @@
         <v>6</v>
       </c>
       <c r="B368" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B369" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B370" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B371" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B372" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B373" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B374" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B375" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B376" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B377" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B378" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B380" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B381" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B382" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -3426,28 +3441,28 @@
         <v>10</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B386" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B387" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B388" t="s">
         <v>3</v>
@@ -3458,12 +3473,12 @@
         <v>4</v>
       </c>
       <c r="B389" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.15">
@@ -3471,52 +3486,52 @@
         <v>6</v>
       </c>
       <c r="B391" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B392" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B393" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B396" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B397" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B398" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.15">
@@ -3524,12 +3539,12 @@
         <v>4</v>
       </c>
       <c r="B399" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.15">
@@ -3537,52 +3552,52 @@
         <v>6</v>
       </c>
       <c r="B401" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B402" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B403" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B407" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B408" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B409" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.15">
@@ -3590,38 +3605,38 @@
         <v>4</v>
       </c>
       <c r="B410" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B411" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B412" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B413" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B414" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B415" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -3629,36 +3644,36 @@
         <v>10</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B420" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B421" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B422" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.15">
@@ -3666,37 +3681,37 @@
         <v>4</v>
       </c>
       <c r="B423" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B424" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B425" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B426" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B427" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B428" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B429" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.15">
@@ -3704,20 +3719,20 @@
         <v>6</v>
       </c>
       <c r="B430" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B431" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B432" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -3725,31 +3740,31 @@
         <v>10</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B436" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B437" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B438" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.15">
@@ -3757,33 +3772,33 @@
         <v>4</v>
       </c>
       <c r="B439" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B440" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B442" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B443" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B444" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -3791,7 +3806,7 @@
         <v>10</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -3802,23 +3817,23 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B448" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B449" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B450" t="s">
         <v>3</v>
@@ -3826,45 +3841,45 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B451" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B452" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B453" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B454" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B455" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B456" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B457" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B458" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.15">
@@ -3872,20 +3887,20 @@
         <v>6</v>
       </c>
       <c r="B459" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B460" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B461" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -3893,110 +3908,110 @@
         <v>10</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B465" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B466" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B467" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B468" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B469" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B470" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B471" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B472" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B473" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B474" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B475" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B476" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B477" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B478" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B479" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B480" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B481" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -4004,31 +4019,31 @@
         <v>10</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B485" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B486" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B487" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.15">
@@ -4036,38 +4051,38 @@
         <v>4</v>
       </c>
       <c r="B488" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B489" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B490" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B491" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B492" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B493" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -4075,31 +4090,31 @@
         <v>10</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B497" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B498" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B499" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.15">
@@ -4107,12 +4122,12 @@
         <v>4</v>
       </c>
       <c r="B500" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B501" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.15">
@@ -4120,20 +4135,20 @@
         <v>6</v>
       </c>
       <c r="B502" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B503" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B504" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -4141,7 +4156,7 @@
         <v>10</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -4152,26 +4167,26 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B508" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B509" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B510" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.15">
@@ -4179,12 +4194,12 @@
         <v>4</v>
       </c>
       <c r="B511" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B512" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.15">
@@ -4192,40 +4207,40 @@
         <v>6</v>
       </c>
       <c r="B513" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B514" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B515" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B516" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B517" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B518" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B519" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -4233,31 +4248,31 @@
         <v>10</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B523" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B524" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B525" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.15">
@@ -4265,12 +4280,12 @@
         <v>4</v>
       </c>
       <c r="B526" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B527" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.15">
@@ -4278,40 +4293,40 @@
         <v>6</v>
       </c>
       <c r="B528" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B529" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B530" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B531" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B532" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B533" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B534" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -4319,36 +4334,36 @@
         <v>10</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B539" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B540" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B541" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.15">
@@ -4356,17 +4371,17 @@
         <v>4</v>
       </c>
       <c r="B542" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B543" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B544" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.15">
@@ -4374,20 +4389,20 @@
         <v>6</v>
       </c>
       <c r="B545" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B546" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B547" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -4395,36 +4410,36 @@
         <v>10</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B552" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B553" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B554" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.15">
@@ -4432,12 +4447,12 @@
         <v>4</v>
       </c>
       <c r="B555" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B556" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.15">
@@ -4445,52 +4460,52 @@
         <v>6</v>
       </c>
       <c r="B557" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B558" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B559" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B563" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B564" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B565" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.15">
@@ -4498,12 +4513,12 @@
         <v>4</v>
       </c>
       <c r="B566" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B567" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.15">
@@ -4511,20 +4526,20 @@
         <v>6</v>
       </c>
       <c r="B568" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B569" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B570" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -4532,31 +4547,31 @@
         <v>10</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B574" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B575" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B576" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.15">
@@ -4564,12 +4579,12 @@
         <v>4</v>
       </c>
       <c r="B577" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B578" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.15">
@@ -4577,20 +4592,20 @@
         <v>6</v>
       </c>
       <c r="B579" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B580" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B581" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -4598,7 +4613,7 @@
         <v>10</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4619,8 +4634,9 @@
     <hyperlink ref="B553" r:id="rId13" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
     <hyperlink ref="B564" r:id="rId14" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
     <hyperlink ref="B575" r:id="rId15" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B195" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>